--- a/Igrom_glossary.xlsx
+++ b/Igrom_glossary.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Starfield_RU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80C2CC8-589A-47F7-A7F4-79710D6987FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AC4BF6-6688-4848-BBBA-7338B4635F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="3105" windowWidth="29010" windowHeight="15375" activeTab="1" xr2:uid="{90C7B788-EEE8-474A-B8A2-7D8668DC129C}"/>
+    <workbookView xWindow="90" yWindow="4680" windowWidth="29010" windowHeight="15375" activeTab="1" xr2:uid="{90C7B788-EEE8-474A-B8A2-7D8668DC129C}"/>
   </bookViews>
   <sheets>
     <sheet name="Flora" sheetId="1" r:id="rId1"/>
-    <sheet name="Fauna" sheetId="2" r:id="rId2"/>
+    <sheet name="Animals" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Fauna!$A$1:$C$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Animals!$A$1:$C$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flora!$A$1:$C$207</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="958">
   <si>
     <t>Английское название</t>
   </si>
@@ -1940,9 +1940,6 @@
     <t>Kreet Crawler</t>
   </si>
   <si>
-    <t>трилобит</t>
-  </si>
-  <si>
     <t>критский ползун</t>
   </si>
   <si>
@@ -2166,15 +2163,1412 @@
     <t>Terrormorph</t>
   </si>
   <si>
-    <t>порождение ужаса</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 "Terror" - это существительное, означающее ужас, страх, ужасающее событие или состояние, вызывающее страх.
 "Morph" - это глагол или существительное, связанные с процессом изменения формы, структуры или характера. В данном контексте, скорее всего, это существительное, обозначающее процесс морфологической трансформации или изменения.</t>
   </si>
   <si>
-    <t>порождение ужаса прислужник</t>
+    <t xml:space="preserve">Террорморф </t>
+  </si>
+  <si>
+    <t>Террорморф прислужник</t>
+  </si>
+  <si>
+    <t>Terrormorph Anomaly</t>
+  </si>
+  <si>
+    <t>Террорморф аномальный</t>
+  </si>
+  <si>
+    <t>Трилобит</t>
+  </si>
+  <si>
+    <t>Больной террорморф</t>
+  </si>
+  <si>
+    <t>Diseased Terrormorph</t>
+  </si>
+  <si>
+    <t>Burrowing Terrormorph</t>
+  </si>
+  <si>
+    <t>Зарывающийся террорморф</t>
+  </si>
+  <si>
+    <t>Albino Terrormorph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Террорморф альбинос </t>
+  </si>
+  <si>
+    <t>Cloaked Terrormorph</t>
+  </si>
+  <si>
+    <t>Alpha Terrormorph</t>
+  </si>
+  <si>
+    <t>Альфа террорморф</t>
+  </si>
+  <si>
+    <t>Терраморф маскировщик</t>
+  </si>
+  <si>
+    <t>Террорморф контроллер</t>
+  </si>
+  <si>
+    <t>Controller Terrormorph</t>
+  </si>
+  <si>
+    <t>Blister Crab</t>
+  </si>
+  <si>
+    <t>Пузырчатый краб</t>
+  </si>
+  <si>
+    <t>Maggot Crab</t>
+  </si>
+  <si>
+    <t>личинка Краба</t>
+  </si>
+  <si>
+    <t>Rock Crab</t>
+  </si>
+  <si>
+    <t>Скальный краб</t>
+  </si>
+  <si>
+    <t>Roundshell Crab</t>
+  </si>
+  <si>
+    <t>Круглопанцирный краб</t>
+  </si>
+  <si>
+    <t>Spiked Crab</t>
+  </si>
+  <si>
+    <t>Шипастый краб</t>
+  </si>
+  <si>
+    <t>Boneback</t>
+  </si>
+  <si>
+    <t>Костеспин</t>
+  </si>
+  <si>
+    <t>Herding</t>
+  </si>
+  <si>
+    <t>Пасущийся</t>
+  </si>
+  <si>
+    <t>Shoaling</t>
+  </si>
+  <si>
+    <t>Нерестящийся</t>
+  </si>
+  <si>
+    <t>Flocking</t>
+  </si>
+  <si>
+    <t>Флокирующий</t>
+  </si>
+  <si>
+    <t>Обучающийся</t>
+  </si>
+  <si>
+    <t>Schooling</t>
+  </si>
+  <si>
+    <t>Hunting</t>
+  </si>
+  <si>
+    <t>Охотящийся</t>
+  </si>
+  <si>
+    <t>Swarming</t>
+  </si>
+  <si>
+    <t>Роящийся</t>
+  </si>
+  <si>
+    <t>Apex</t>
+  </si>
+  <si>
+    <t>Вершина</t>
+  </si>
+  <si>
+    <t>Bombardier</t>
+  </si>
+  <si>
+    <t>Бомбардирующий</t>
+  </si>
+  <si>
+    <t>KYWD - CCT_Instance_Name_</t>
+  </si>
+  <si>
+    <t>Biped</t>
+  </si>
+  <si>
+    <t>Двуногий</t>
+  </si>
+  <si>
+    <t>Floater</t>
+  </si>
+  <si>
+    <t>Поплавок</t>
+  </si>
+  <si>
+    <t>Flyer</t>
+  </si>
+  <si>
+    <t>Летун</t>
+  </si>
+  <si>
+    <t>Hexapod</t>
+  </si>
+  <si>
+    <t>Шестеног</t>
+  </si>
+  <si>
+    <t>Hopper</t>
+  </si>
+  <si>
+    <t>Прыгун</t>
+  </si>
+  <si>
+    <t>Critter</t>
+  </si>
+  <si>
+    <t>Кроха</t>
+  </si>
+  <si>
+    <t>Octopede</t>
+  </si>
+  <si>
+    <t>Восьминог</t>
+  </si>
+  <si>
+    <t>Manta</t>
+  </si>
+  <si>
+    <t>Манта</t>
+  </si>
+  <si>
+    <t>Mantid</t>
+  </si>
+  <si>
+    <t>Богомол</t>
+  </si>
+  <si>
+    <t>Quadruped</t>
+  </si>
+  <si>
+    <t>Четвероног</t>
+  </si>
+  <si>
+    <t>Swimmer</t>
+  </si>
+  <si>
+    <t>Плывун</t>
+  </si>
+  <si>
+    <t>Bladeback</t>
+  </si>
+  <si>
+    <t>Лезвеспин</t>
+  </si>
+  <si>
+    <t>Twintail</t>
+  </si>
+  <si>
+    <t>Двухвост</t>
+  </si>
+  <si>
+    <t>Dodo</t>
+  </si>
+  <si>
+    <t>Додо</t>
+  </si>
+  <si>
+    <t>Foxbat</t>
+  </si>
+  <si>
+    <t>Летучая лиса</t>
+  </si>
+  <si>
+    <t>Hammersaur</t>
+  </si>
+  <si>
+    <t>Молотозавр</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Наблюдатель</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>Кошмар</t>
+  </si>
+  <si>
+    <t>Orchid</t>
+  </si>
+  <si>
+    <t>Орхидея</t>
+  </si>
+  <si>
+    <t>Reefwalker</t>
+  </si>
+  <si>
+    <t>Рифоходец</t>
+  </si>
+  <si>
+    <t>Shroomhead</t>
+  </si>
+  <si>
+    <t>Грибоголов</t>
+  </si>
+  <si>
+    <t>Silverfish</t>
+  </si>
+  <si>
+    <t>Серебрянка</t>
+  </si>
+  <si>
+    <t>Sloth</t>
+  </si>
+  <si>
+    <t>Ленивец</t>
+  </si>
+  <si>
+    <t>Sporeback</t>
+  </si>
+  <si>
+    <t>Спороспин</t>
+  </si>
+  <si>
+    <t>Вихреплавник</t>
+  </si>
+  <si>
+    <t>Twistfin</t>
+  </si>
+  <si>
+    <t>Vectorback</t>
+  </si>
+  <si>
+    <t>Вектроспин</t>
+  </si>
+  <si>
+    <t>Vulture</t>
+  </si>
+  <si>
+    <t>Стервятник</t>
+  </si>
+  <si>
+    <t>Караснейил</t>
+  </si>
+  <si>
+    <t>Carasnail</t>
+  </si>
+  <si>
+    <t>Сороконожкоголов</t>
+  </si>
+  <si>
+    <t>Centiskull</t>
+  </si>
+  <si>
+    <t>Coralheart</t>
+  </si>
+  <si>
+    <t>Кораллосердец</t>
+  </si>
+  <si>
+    <t>Flamethorn</t>
+  </si>
+  <si>
+    <t>Пламерог</t>
+  </si>
+  <si>
+    <t>Хвататель</t>
+  </si>
+  <si>
+    <t>Grabber</t>
+  </si>
+  <si>
+    <t>Jackknife</t>
+  </si>
+  <si>
+    <t>Джекнайф</t>
+  </si>
+  <si>
+    <t>Миликит</t>
+  </si>
+  <si>
+    <t>Milliwhale</t>
+  </si>
+  <si>
+    <t>Spaceroach</t>
+  </si>
+  <si>
+    <t>Космотаракан</t>
+  </si>
+  <si>
+    <t>Artichoke</t>
+  </si>
+  <si>
+    <t>Артишок</t>
+  </si>
+  <si>
+    <t>Fleshleaf</t>
+  </si>
+  <si>
+    <t>Herbivore</t>
+  </si>
+  <si>
+    <t>Filterer</t>
+  </si>
+  <si>
+    <t>Фильтратор</t>
+  </si>
+  <si>
+    <t>Плавникорыба</t>
+  </si>
+  <si>
+    <t>Paddlefish</t>
+  </si>
+  <si>
+    <t>Featherfin</t>
+  </si>
+  <si>
+    <t>Плавникопер</t>
+  </si>
+  <si>
+    <t>Seahag</t>
+  </si>
+  <si>
+    <t>Морской дух</t>
+  </si>
+  <si>
+    <t>Мясолист</t>
+  </si>
+  <si>
+    <t>Коралловец</t>
+  </si>
+  <si>
+    <t>Coralbucket</t>
+  </si>
+  <si>
+    <t>Грибоплавун</t>
+  </si>
+  <si>
+    <t>Shroombobber</t>
+  </si>
+  <si>
+    <t>Drone</t>
+  </si>
+  <si>
+    <t>Дрон</t>
+  </si>
+  <si>
+    <t>Яичник</t>
+  </si>
+  <si>
+    <t>Eggsac</t>
+  </si>
+  <si>
+    <t>Gossamer</t>
+  </si>
+  <si>
+    <t>Паутинщик</t>
+  </si>
+  <si>
+    <t>Jellyfin</t>
+  </si>
+  <si>
+    <t>Медузник</t>
+  </si>
+  <si>
+    <t>Название складного ножа</t>
+  </si>
+  <si>
+    <t>Долговяз</t>
+  </si>
+  <si>
+    <t>Longboi</t>
+  </si>
+  <si>
+    <t>Metropus</t>
+  </si>
+  <si>
+    <t>Метропус</t>
+  </si>
+  <si>
+    <t>Nautiloos</t>
+  </si>
+  <si>
+    <t>Наутилус</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Жемчужина</t>
+  </si>
+  <si>
+    <t>Puffball</t>
+  </si>
+  <si>
+    <t>Дымошар</t>
+  </si>
+  <si>
+    <t>Scepter</t>
+  </si>
+  <si>
+    <t>Жезл</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Спора</t>
+  </si>
+  <si>
+    <t>Cassowary</t>
+  </si>
+  <si>
+    <t>Казуар</t>
+  </si>
+  <si>
+    <t>Cockatrice</t>
+  </si>
+  <si>
+    <t>Василиск</t>
+  </si>
+  <si>
+    <t>Молекрыл</t>
+  </si>
+  <si>
+    <t>Mothwing</t>
+  </si>
+  <si>
+    <t>Glider</t>
+  </si>
+  <si>
+    <t>Глайдер</t>
+  </si>
+  <si>
+    <t>Gloam</t>
+  </si>
+  <si>
+    <t>Сумеречник</t>
+  </si>
+  <si>
+    <t>Glowback</t>
+  </si>
+  <si>
+    <t>Спиносвет</t>
+  </si>
+  <si>
+    <t>Рогокрыл</t>
+  </si>
+  <si>
+    <t>Hornwing</t>
+  </si>
+  <si>
+    <t>Попугайстреб</t>
+  </si>
+  <si>
+    <t>Parrothawk</t>
+  </si>
+  <si>
+    <t>Озорник</t>
+  </si>
+  <si>
+    <t>Nautilus</t>
+  </si>
+  <si>
+    <t>Raptor</t>
+  </si>
+  <si>
+    <t>Раптор</t>
+  </si>
+  <si>
+    <t>Seabat</t>
+  </si>
+  <si>
+    <t>Сибат</t>
+  </si>
+  <si>
+    <t>Angler</t>
+  </si>
+  <si>
+    <t>Удильщик</t>
+  </si>
+  <si>
+    <t>Арахномуха</t>
+  </si>
+  <si>
+    <t>Arachnofly</t>
+  </si>
+  <si>
+    <t>Медведелап</t>
+  </si>
+  <si>
+    <t>Bearclaw</t>
+  </si>
+  <si>
+    <t>Мозговик</t>
+  </si>
+  <si>
+    <t>Brainsquid</t>
+  </si>
+  <si>
+    <t>Яркоклеточник</t>
+  </si>
+  <si>
+    <t>Brightcage</t>
+  </si>
+  <si>
+    <t>Cephalopod</t>
+  </si>
+  <si>
+    <t>Цефалопод</t>
+  </si>
+  <si>
+    <t>Longarm</t>
+  </si>
+  <si>
+    <t>Длинорук</t>
+  </si>
+  <si>
+    <t>Паукожалец</t>
+  </si>
+  <si>
+    <t>Spiderwasp</t>
+  </si>
+  <si>
+    <t>Leafbug</t>
+  </si>
+  <si>
+    <t>Листоклоп</t>
+  </si>
+  <si>
+    <t>Арахнобогомол</t>
+  </si>
+  <si>
+    <t>Arachnomantis</t>
+  </si>
+  <si>
+    <t>Спиножал</t>
+  </si>
+  <si>
+    <t>Stingback</t>
+  </si>
+  <si>
+    <t>Подсолнечник</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Windbag</t>
+  </si>
+  <si>
+    <t>"Болтун"</t>
+  </si>
+  <si>
+    <t>Костепанцирь</t>
+  </si>
+  <si>
+    <t>Boneshell</t>
+  </si>
+  <si>
+    <t>Clickbeetle</t>
+  </si>
+  <si>
+    <t>Щелкун</t>
+  </si>
+  <si>
+    <t>Журавлепрыг</t>
+  </si>
+  <si>
+    <t>Cranehopper</t>
+  </si>
+  <si>
+    <t>Земляная акула</t>
+  </si>
+  <si>
+    <t>Landshark</t>
+  </si>
+  <si>
+    <t>Кругломорд</t>
+  </si>
+  <si>
+    <t>Roundface</t>
+  </si>
+  <si>
+    <t>Чешуйник</t>
+  </si>
+  <si>
+    <t>Plateskin</t>
+  </si>
+  <si>
+    <t>Камнеспин</t>
+  </si>
+  <si>
+    <t>Stoneback</t>
+  </si>
+  <si>
+    <t>Scarab</t>
+  </si>
+  <si>
+    <t>Скарабей</t>
+  </si>
+  <si>
+    <t>Осколкопрыг</t>
+  </si>
+  <si>
+    <t>Shardhopper</t>
+  </si>
+  <si>
+    <t>Бивнежаба</t>
+  </si>
+  <si>
+    <t>Tuskfrog</t>
+  </si>
+  <si>
+    <t>Листоспин</t>
+  </si>
+  <si>
+    <t>Leafback</t>
+  </si>
+  <si>
+    <t>Маятник</t>
+  </si>
+  <si>
+    <t>Wiggler</t>
+  </si>
+  <si>
+    <t>"Wiggler" - это английское слово, которое переводится как "покачивающийся" или "дрожащий". Этот термин может использоваться для описания движения или действия, которое характеризуется небольшими, повторяющимися колебаниями или тряской. "Wiggler" также может относиться к маленькому ребенку или младенцу, который может делать мягкие и неловкие движения, а также к названию некоторых видов насекомых или морских созданий, которые имеют характерное покачивающееся или дрожащее движение.</t>
+  </si>
+  <si>
+    <t>Гусеница</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>Fingerface</t>
+  </si>
+  <si>
+    <t>Пальцеморд</t>
+  </si>
+  <si>
+    <t>Личинка</t>
+  </si>
+  <si>
+    <t>Grub</t>
+  </si>
+  <si>
+    <t>Tubecrawler</t>
+  </si>
+  <si>
+    <t>Труболаз</t>
+  </si>
+  <si>
+    <t>Ксеноличинка</t>
+  </si>
+  <si>
+    <t>Xenogrub</t>
+  </si>
+  <si>
+    <t>Worm</t>
+  </si>
+  <si>
+    <t>Червь</t>
+  </si>
+  <si>
+    <t>Morion</t>
+  </si>
+  <si>
+    <t>Морион</t>
+  </si>
+  <si>
+    <t>Нойд</t>
+  </si>
+  <si>
+    <t>Noid</t>
+  </si>
+  <si>
+    <t>Pinecone</t>
+  </si>
+  <si>
+    <t>Шишка</t>
+  </si>
+  <si>
+    <t>Snuffler</t>
+  </si>
+  <si>
+    <t>Нюхач</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Snuffler" - это английское слово, которое переводится как "щупальщик" или "нюхач". Этот термин может использоваться в различных контекстах и иметь разные значения:
+Животное: "Snuffler" может относиться к животному, которое выделяется своим отличительным нюхательным или щупальцевидным органом. Например, это может быть животное с хорошо развитым обонянием или чувствительными усиками.
+Человек: В разговорной речи "snuffler" может использоваться для описания человека, который постоянно нюхает или шмыгает носом, особенно когда у него насморк или аллергия.
+В переносном смысле: В переносном смысле "snuffler" может означать человека, который активно исследует, нюхает или изучает что-либо, часто в поисках информации или деталей.</t>
+  </si>
+  <si>
+    <t>Шипочервь</t>
+  </si>
+  <si>
+    <t>Spikeworm</t>
+  </si>
+  <si>
+    <t>Snail</t>
+  </si>
+  <si>
+    <t>Улитка</t>
+  </si>
+  <si>
+    <t>парная личинка</t>
+  </si>
+  <si>
+    <t>Twingrub</t>
+  </si>
+  <si>
+    <t>Триочервь</t>
+  </si>
+  <si>
+    <t>Triworm</t>
+  </si>
+  <si>
+    <t>Трубочник</t>
+  </si>
+  <si>
+    <t>Tubule</t>
+  </si>
+  <si>
+    <t>Ксотоглайдер</t>
+  </si>
+  <si>
+    <t>Boneglider</t>
+  </si>
+  <si>
+    <t>Мозгляк</t>
+  </si>
+  <si>
+    <t>Brainblimp</t>
+  </si>
+  <si>
+    <t>Canard</t>
+  </si>
+  <si>
+    <t>Утка</t>
+  </si>
+  <si>
+    <t>Dragonfly</t>
+  </si>
+  <si>
+    <t>Стрекоза</t>
+  </si>
+  <si>
+    <t>Flapwheel</t>
+  </si>
+  <si>
+    <t>Маховик</t>
+  </si>
+  <si>
+    <t>Fluke</t>
+  </si>
+  <si>
+    <t>Глист</t>
+  </si>
+  <si>
+    <t>Паразитический червь: "Fluke" также может относиться к определенным видам паразитических плоских червей, которые могут поражать животных и человека.</t>
+  </si>
+  <si>
+    <t>Раболев</t>
+  </si>
+  <si>
+    <t>Lionfish</t>
+  </si>
+  <si>
+    <t>Mayfly</t>
+  </si>
+  <si>
+    <t>Маец</t>
+  </si>
+  <si>
+    <t>"Mayfly" переводится как "маец" или "маец-однодневка". Маец - это насекомое, которое принадлежит к семейству Ephemeroptera. Оно получило свое название из-за того, что большинство видов мацев живут всего несколько часов или дней во взрослой стадии, и их жизненный цикл сосредоточен вокруг месяца мая.</t>
+  </si>
+  <si>
+    <t>Morningstar</t>
+  </si>
+  <si>
+    <t>Морнингстар</t>
+  </si>
+  <si>
+    <t>Мрачник</t>
+  </si>
+  <si>
+    <t>Saturnine</t>
+  </si>
+  <si>
+    <t>"Saturnine" - это английское слово, которое обозначает холодное, мрачное, суровое или угрюмое настроение, характеризующееся пессимизмом или безразличием. Этот термин происходит от древнеримской астрологии, где Сатурн считался планетой, связанной с мрачностью и угрюмостью.</t>
+  </si>
+  <si>
+    <t>Sentinel</t>
+  </si>
+  <si>
+    <t>Страж</t>
+  </si>
+  <si>
+    <t>Stingray</t>
+  </si>
+  <si>
+    <t>Скат</t>
+  </si>
+  <si>
+    <t>Sunfish</t>
+  </si>
+  <si>
+    <t>Солнечник</t>
+  </si>
+  <si>
+    <t>Tapeworm</t>
+  </si>
+  <si>
+    <t>Ленточный червь</t>
+  </si>
+  <si>
+    <t>Whaleshark</t>
+  </si>
+  <si>
+    <t>Акулокит</t>
+  </si>
+  <si>
+    <t>Cockroach</t>
+  </si>
+  <si>
+    <t>Таракан</t>
+  </si>
+  <si>
+    <t>Кораложук</t>
+  </si>
+  <si>
+    <t>Coralbug</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Краб</t>
+  </si>
+  <si>
+    <t>Мухокраб</t>
+  </si>
+  <si>
+    <t>Crabfly</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>Сверчок</t>
+  </si>
+  <si>
+    <t>Яйцеспин</t>
+  </si>
+  <si>
+    <t>Eggback</t>
+  </si>
+  <si>
+    <t>Светолап</t>
+  </si>
+  <si>
+    <t>Glowhands</t>
+  </si>
+  <si>
+    <t>Крюкошей</t>
+  </si>
+  <si>
+    <t>Hookneck</t>
+  </si>
+  <si>
+    <t>Ikuradon</t>
+  </si>
+  <si>
+    <t>Икурадон</t>
+  </si>
+  <si>
+    <t>Ikuradon" (いくら丼) - это японское блюдо, которое представляет собой мисо-суп с добавлением икры лосося (икура) и различных ингредиентов, подаваемых на вершине приготовленного риса в мисо-соусе. Блюдо обычно украшается разными ингредиентами, такими как нори (вид водорослей), крабьи палочки, авокадо или яйцом. Ikuradon является популярным японским рисовым блюдом и имеет сладкий, мягкий вкус благодаря икре лосося и мисо-соусу.</t>
+  </si>
+  <si>
+    <t>Maggotmaw</t>
+  </si>
+  <si>
+    <t>Личинкорот</t>
+  </si>
+  <si>
+    <t>Mantodea</t>
+  </si>
+  <si>
+    <t>Богомолец</t>
+  </si>
+  <si>
+    <t>Гребнекост</t>
+  </si>
+  <si>
+    <t>Камнеступ</t>
+  </si>
+  <si>
+    <t>Stonewalker</t>
+  </si>
+  <si>
+    <t>Bonecrest</t>
+  </si>
+  <si>
+    <t>Листоезд</t>
+  </si>
+  <si>
+    <t>Leafstrider</t>
+  </si>
+  <si>
+    <t>Камнелом</t>
+  </si>
+  <si>
+    <t>Rockhound</t>
+  </si>
+  <si>
+    <t>Шипастый богомол</t>
+  </si>
+  <si>
+    <t>Thornmantis</t>
+  </si>
+  <si>
+    <t>Вувузелиск</t>
+  </si>
+  <si>
+    <t>Vuvuzelisk</t>
+  </si>
+  <si>
+    <t>Жукокраб</t>
+  </si>
+  <si>
+    <t>Beetlecrab</t>
+  </si>
+  <si>
+    <t>Пузырчатокраб</t>
+  </si>
+  <si>
+    <t>Blistercrab</t>
+  </si>
+  <si>
+    <t>Coralcrawler</t>
+  </si>
+  <si>
+    <t>Экзоползун</t>
+  </si>
+  <si>
+    <t>Коралоползун</t>
+  </si>
+  <si>
+    <t>Exocrawler</t>
+  </si>
+  <si>
+    <t>Когтеспин</t>
+  </si>
+  <si>
+    <t>Clawback</t>
+  </si>
+  <si>
+    <t>Щитораковенник</t>
+  </si>
+  <si>
+    <t>Shieldshell</t>
+  </si>
+  <si>
+    <t>Рогоморд</t>
+  </si>
+  <si>
+    <t>Hornface</t>
+  </si>
+  <si>
+    <t>Longhorn</t>
+  </si>
+  <si>
+    <t>Длиннорог</t>
+  </si>
+  <si>
+    <t>Октоличинка</t>
+  </si>
+  <si>
+    <t>Octomaggot</t>
+  </si>
+  <si>
+    <t>Horsamander</t>
+  </si>
+  <si>
+    <t>Лошадемандер</t>
+  </si>
+  <si>
+    <t>Roundshell</t>
+  </si>
+  <si>
+    <t>Круглопанцерник</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
+    <t>Скорпион</t>
+  </si>
+  <si>
+    <t>Ankylosaurus</t>
+  </si>
+  <si>
+    <t>Анкилозавр</t>
+  </si>
+  <si>
+    <t>Леоурзус</t>
+  </si>
+  <si>
+    <t>Lionbear</t>
+  </si>
+  <si>
+    <t>Страходил</t>
+  </si>
+  <si>
+    <t>Crocodaunt</t>
+  </si>
+  <si>
+    <t>Головрезчик</t>
+  </si>
+  <si>
+    <t>Cutterhead</t>
+  </si>
+  <si>
+    <t>Exorunner</t>
+  </si>
+  <si>
+    <t>Экзобытряк</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Дракон</t>
+  </si>
+  <si>
+    <t>Большерог</t>
+  </si>
+  <si>
+    <t>Bighorn</t>
+  </si>
+  <si>
+    <t>Носозавр</t>
+  </si>
+  <si>
+    <t>Rhinosaur</t>
+  </si>
+  <si>
+    <t>Челюстник</t>
+  </si>
+  <si>
+    <t>Lockjaw</t>
+  </si>
+  <si>
+    <t>Гвоздехвост</t>
+  </si>
+  <si>
+    <t>Nailtail</t>
+  </si>
+  <si>
+    <t>Парусогатор</t>
+  </si>
+  <si>
+    <t>Sailgator</t>
+  </si>
+  <si>
+    <t>Костешип</t>
+  </si>
+  <si>
+    <t>Bonefrill</t>
+  </si>
+  <si>
+    <t>Жабоморд</t>
+  </si>
+  <si>
+    <t>Toadface</t>
+  </si>
+  <si>
+    <t>Ловушечник</t>
+  </si>
+  <si>
+    <t>Trapmaw</t>
+  </si>
+  <si>
+    <t>Trihorn</t>
+  </si>
+  <si>
+    <t>Трирог</t>
+  </si>
+  <si>
+    <t>Ледолес</t>
+  </si>
+  <si>
+    <t>Aceles</t>
+  </si>
+  <si>
+    <t>Мозгоклеть</t>
+  </si>
+  <si>
+    <t>Cagebrain</t>
+  </si>
+  <si>
+    <t>Длиношеий</t>
+  </si>
+  <si>
+    <t>Longneck</t>
+  </si>
+  <si>
+    <t>Водоросленник</t>
+  </si>
+  <si>
+    <t>Kelpstrider</t>
+  </si>
+  <si>
+    <t>Многоножка</t>
+  </si>
+  <si>
+    <t>Слонодонт</t>
+  </si>
+  <si>
+    <t>Loxodont</t>
+  </si>
+  <si>
+    <t>Lacraia - это португальский термин, который переводится как "сороконожка" или "многоножка" на русский язык. Этот термин обычно используется для описания многоножек - небольших беспозвоночных животных, характеризующихся наличием множества пар ног.</t>
+  </si>
+  <si>
+    <t>Lacraia</t>
+  </si>
+  <si>
+    <t>"Loxodont" - это термин, который обычно используется для описания видов слонов с особенно крупными и выпуклыми челюстями или зубами. Слово "loxodont" происходит от греческих слов "loxos" (косой) и "odous" (зуб), и оно указывает на форму и структуру зубов у этих слонов.
+Основным видом слонов, к которым применяется термин "loxodont", является африканский слон (Loxodonta africana), который характеризуется крупными и плоскими жевательными зубами с продольными желобками. Эти зубы адаптированы для измельчения пищи, включая траву и растения.</t>
+  </si>
+  <si>
+    <t>Марнокк</t>
+  </si>
+  <si>
+    <t>Marnokk</t>
+  </si>
+  <si>
+    <t>Mossasaur</t>
+  </si>
+  <si>
+    <t>Мохозавр</t>
+  </si>
+  <si>
+    <t>Tentabeard</t>
+  </si>
+  <si>
+    <t>Щупальцебород</t>
+  </si>
+  <si>
+    <t>Драконодон</t>
+  </si>
+  <si>
+    <t>Dragondon</t>
+  </si>
+  <si>
+    <t>Scoopback</t>
+  </si>
+  <si>
+    <t>Лункаспин</t>
+  </si>
+  <si>
+    <t>Seahorse</t>
+  </si>
+  <si>
+    <t>Морской конек</t>
+  </si>
+  <si>
+    <t>Панцереслон</t>
+  </si>
+  <si>
+    <t>Shellephant</t>
+  </si>
+  <si>
+    <t>Гривакост</t>
+  </si>
+  <si>
+    <t>Bonemane</t>
+  </si>
+  <si>
+    <t>Языкоморд</t>
+  </si>
+  <si>
+    <t>Tongueface</t>
+  </si>
+  <si>
+    <t>Anteater</t>
+  </si>
+  <si>
+    <t>Муравьед</t>
+  </si>
+  <si>
+    <t>Мозгоспрут</t>
+  </si>
+  <si>
+    <t>Brainsprout</t>
+  </si>
+  <si>
+    <t>Мозгоспраут</t>
+  </si>
+  <si>
+    <t>Карп ходун</t>
+  </si>
+  <si>
+    <t>Carpwalker</t>
+  </si>
+  <si>
+    <t>Крокалипсис</t>
+  </si>
+  <si>
+    <t>Crocalypse</t>
+  </si>
+  <si>
+    <t>Earback</t>
+  </si>
+  <si>
+    <t>Ухоспин</t>
+  </si>
+  <si>
+    <t>Яйцехвост</t>
+  </si>
+  <si>
+    <t>Eggtail</t>
+  </si>
+  <si>
+    <t>Cyclozard</t>
+  </si>
+  <si>
+    <t>Циклозард</t>
+  </si>
+  <si>
+    <t>Глзошип</t>
+  </si>
+  <si>
+    <t>Eyespine</t>
+  </si>
+  <si>
+    <t>Leecher</t>
+  </si>
+  <si>
+    <t>Пиявочник</t>
+  </si>
+  <si>
+    <t>Гиподон</t>
+  </si>
+  <si>
+    <t>Hippodon</t>
+  </si>
+  <si>
+    <t>Олгорэг</t>
+  </si>
+  <si>
+    <t>Olgreg</t>
+  </si>
+  <si>
+    <t>Geckon</t>
+  </si>
+  <si>
+    <t>Геккон</t>
+  </si>
+  <si>
+    <t>Triantler</t>
+  </si>
+  <si>
+    <t>Трехрог</t>
+  </si>
+  <si>
+    <t>Twigwalker</t>
+  </si>
+  <si>
+    <t>Веткоход</t>
+  </si>
+  <si>
+    <t>Спинотряс</t>
+  </si>
+  <si>
+    <t>Wobbleback</t>
+  </si>
+  <si>
+    <t>Арапайма</t>
+  </si>
+  <si>
+    <t>Arapaima</t>
+  </si>
+  <si>
+    <t>Ножеголов</t>
+  </si>
+  <si>
+    <t>Bladehead</t>
+  </si>
+  <si>
+    <t>Плавникозад</t>
+  </si>
+  <si>
+    <t>Finback</t>
+  </si>
+  <si>
+    <t>Приманочник</t>
+  </si>
+  <si>
+    <t>Lurefish</t>
+  </si>
+  <si>
+    <t>Sharkwhale</t>
+  </si>
+  <si>
+    <t>Мегалодон</t>
+  </si>
+  <si>
+    <t>Черепоморд</t>
+  </si>
+  <si>
+    <t>Skullface</t>
+  </si>
+  <si>
+    <t>Kronosaurus</t>
+  </si>
+  <si>
+    <t>Кронозавр</t>
+  </si>
+  <si>
+    <t>Уникула</t>
+  </si>
+  <si>
+    <t>Unishark</t>
+  </si>
+  <si>
+    <t>Пилоголов</t>
+  </si>
+  <si>
+    <t>Sawhead</t>
+  </si>
+  <si>
+    <t>Exowhale</t>
+  </si>
+  <si>
+    <t>Гербивор</t>
+  </si>
+  <si>
+    <t>Экзокит</t>
   </si>
 </sst>
 </file>
@@ -2200,7 +3594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2225,8 +3619,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEB8585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2393,11 +3793,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2466,9 +3903,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2513,6 +3947,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2528,6 +3987,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEB8585"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2838,8 +4302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17E727-E622-4A11-BEEB-4B6E9FED50B1}">
   <dimension ref="A1:C393"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection sqref="A1:C207"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4756,61 +6220,61 @@
       <c r="B212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="28" t="s">
+      <c r="A213" s="46" t="s">
         <v>428</v>
       </c>
-      <c r="B213" s="28"/>
-      <c r="C213" s="28"/>
+      <c r="B213" s="46"/>
+      <c r="C213" s="46"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="28"/>
-      <c r="B214" s="28"/>
-      <c r="C214" s="28"/>
+      <c r="A214" s="46"/>
+      <c r="B214" s="46"/>
+      <c r="C214" s="46"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="28"/>
-      <c r="B215" s="28"/>
-      <c r="C215" s="28"/>
+      <c r="A215" s="46"/>
+      <c r="B215" s="46"/>
+      <c r="C215" s="46"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="28"/>
-      <c r="B216" s="28"/>
-      <c r="C216" s="28"/>
+      <c r="A216" s="46"/>
+      <c r="B216" s="46"/>
+      <c r="C216" s="46"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="28"/>
-      <c r="B217" s="28"/>
-      <c r="C217" s="28"/>
+      <c r="A217" s="46"/>
+      <c r="B217" s="46"/>
+      <c r="C217" s="46"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="28"/>
-      <c r="B218" s="28"/>
-      <c r="C218" s="28"/>
+      <c r="A218" s="46"/>
+      <c r="B218" s="46"/>
+      <c r="C218" s="46"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="28"/>
-      <c r="B219" s="28"/>
-      <c r="C219" s="28"/>
+      <c r="A219" s="46"/>
+      <c r="B219" s="46"/>
+      <c r="C219" s="46"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="28"/>
-      <c r="B220" s="28"/>
-      <c r="C220" s="28"/>
+      <c r="A220" s="46"/>
+      <c r="B220" s="46"/>
+      <c r="C220" s="46"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="28"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="28"/>
+      <c r="A221" s="46"/>
+      <c r="B221" s="46"/>
+      <c r="C221" s="46"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="28"/>
-      <c r="B222" s="28"/>
-      <c r="C222" s="28"/>
+      <c r="A222" s="46"/>
+      <c r="B222" s="46"/>
+      <c r="C222" s="46"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="28"/>
-      <c r="B223" s="28"/>
-      <c r="C223" s="28"/>
+      <c r="A223" s="46"/>
+      <c r="B223" s="46"/>
+      <c r="C223" s="46"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
@@ -5341,10 +6805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDB45AE-1C57-48BD-9E39-B87CB05DD850}">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5365,1166 +6829,2298 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="C2" s="31" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="B3" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" s="35"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="35"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="35"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="35"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C10" s="35"/>
+    </row>
+    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="35"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="33"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="33"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="C22" s="33"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>480</v>
       </c>
-      <c r="C3" s="31"/>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="C5" s="36"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="C7" s="36"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="36"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="C23" s="35"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="33"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="33"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="C9" s="36"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="B10" s="38" t="s">
+      <c r="C26" s="35"/>
+    </row>
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="C10" s="36"/>
-    </row>
-    <row r="11" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="C12" s="39"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>455</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>449</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="C15" s="36"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="C16" s="34"/>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="C17" s="36"/>
-    </row>
-    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>443</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="C21" s="34"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="C22" s="34"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>482</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="C23" s="36"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="C24" s="34"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="C25" s="34"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="C26" s="36"/>
-    </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="C27" s="34" t="s">
+      <c r="B28" s="32" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="B28" s="33" t="s">
+      <c r="C28" s="33"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29" s="33"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="C28" s="34"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="C29" s="34"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" s="35"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="C31" s="39"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="C33" s="35"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="36"/>
+      <c r="A34" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="C34" s="35"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="36" t="s">
+        <v>504</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="C35" s="35"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
+      <c r="A36" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>507</v>
+      </c>
+      <c r="C36" s="33"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="C37" s="35"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="C38" s="35"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
+      <c r="A39" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C39" s="33"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
+      <c r="A40" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="C40" s="33"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="36"/>
+      <c r="A41" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C41" s="35"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="36"/>
+      <c r="A42" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="C42" s="35"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
+      <c r="A43" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="36"/>
+      <c r="A44" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="C44" s="48"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="36"/>
+      <c r="A45" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="C45" s="48"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="36"/>
+      <c r="A46" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="C46" s="48"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="36"/>
+      <c r="A47" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="C47" s="48"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
+      <c r="A48" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>532</v>
+      </c>
+      <c r="C48" s="48"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="36"/>
+      <c r="A49" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="C49" s="48"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="C50" s="49"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="36"/>
+      <c r="A51" s="31" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="C51" s="35"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="36"/>
+      <c r="A52" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="C52" s="35"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="36"/>
+      <c r="A53" s="31" t="s">
+        <v>542</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="C53" s="35"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
+      <c r="A54" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="C54" s="33"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="36"/>
+      <c r="A55" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="C55" s="35"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
+      <c r="A56" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="C56" s="33"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="35"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="36"/>
+      <c r="A57" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C57" s="35"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="36"/>
+      <c r="A58" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="C58" s="35"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
+      <c r="A59" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="C59" s="33"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="33"/>
-      <c r="C60" s="36"/>
+      <c r="A60" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="C60" s="35"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="32"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="36"/>
+      <c r="A61" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="C61" s="35"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="36"/>
+      <c r="A62" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="C62" s="35"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="34"/>
+      <c r="A63" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="36"/>
+      <c r="A64" s="34" t="s">
+        <v>564</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C64" s="35"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="34"/>
+      <c r="A65" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="C65" s="33"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="36"/>
+      <c r="A66" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C66" s="35"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="36"/>
+      <c r="A67" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="C67" s="35"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="36"/>
+      <c r="A68" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="C68" s="35"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="36"/>
+      <c r="A69" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="C69" s="35"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="36"/>
+      <c r="A70" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="C70" s="35"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="34"/>
+      <c r="A71" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="C71" s="33"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="34"/>
+      <c r="A72" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="C72" s="33"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="36"/>
+      <c r="A73" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="C73" s="35"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="36"/>
+      <c r="A74" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="C74" s="35"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="36"/>
+      <c r="A75" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="C75" s="35"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34"/>
+      <c r="A76" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>589</v>
+      </c>
+      <c r="C76" s="33"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="36"/>
+      <c r="A77" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="C77" s="35"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="36"/>
+      <c r="A78" s="50" t="s">
+        <v>593</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>592</v>
+      </c>
+      <c r="C78" s="35"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="36"/>
+      <c r="A79" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="C79" s="35"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="36"/>
+      <c r="A80" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="B80" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="C80" s="35"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="36"/>
+      <c r="A81" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="C81" s="35"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="36"/>
+      <c r="A82" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="C82" s="35"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="36"/>
+      <c r="A83" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="B83" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="36"/>
+      <c r="A84" s="31" t="s">
+        <v>605</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="C84" s="35"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="36"/>
+      <c r="A85" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C85" s="35"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="36"/>
+      <c r="A86" s="34" t="s">
+        <v>608</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="C86" s="35"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="36"/>
+      <c r="A87" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="C87" s="35"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="36"/>
+      <c r="A88" s="34" t="s">
+        <v>611</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>956</v>
+      </c>
+      <c r="C88" s="35"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="36"/>
+      <c r="A89" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="C89" s="35"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="36"/>
+      <c r="A90" s="36" t="s">
+        <v>615</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="C90" s="35"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="36"/>
+      <c r="A91" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C91" s="35"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="36"/>
+      <c r="A92" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>619</v>
+      </c>
+      <c r="C92" s="35"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="36"/>
+      <c r="A93" s="34" t="s">
+        <v>622</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>621</v>
+      </c>
+      <c r="C93" s="35"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="36"/>
+      <c r="A94" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C94" s="35"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="36"/>
+      <c r="A95" s="36" t="s">
+        <v>625</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="C95" s="35"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="36"/>
+      <c r="A96" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="C96" s="35"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="36"/>
+      <c r="A97" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="B97" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="C97" s="35"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="36"/>
+      <c r="A98" s="36" t="s">
+        <v>631</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="C98" s="35"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="41"/>
+      <c r="A99" s="36" t="s">
+        <v>635</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>634</v>
+      </c>
+      <c r="C99" s="40"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="32"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="36"/>
+      <c r="A100" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="C100" s="35"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="36"/>
+      <c r="A101" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>664</v>
+      </c>
+      <c r="C101" s="35"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="36"/>
+      <c r="A102" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="C102" s="35"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="36"/>
+      <c r="A103" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="C103" s="35"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="36"/>
+      <c r="A104" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="C104" s="35"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="36"/>
+      <c r="A105" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="C105" s="35"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="36"/>
+      <c r="A106" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="C106" s="35"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="32"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="34"/>
+      <c r="A107" s="36" t="s">
+        <v>650</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="C107" s="33"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="36"/>
+      <c r="A108" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="C108" s="35"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="36"/>
+      <c r="A109" s="31" t="s">
+        <v>654</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="C109" s="35"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="37"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="36"/>
+      <c r="A110" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="C110" s="35"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="32"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="34"/>
+      <c r="A111" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="C111" s="33"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
+      <c r="A112" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>660</v>
+      </c>
+      <c r="C112" s="33"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="36"/>
+      <c r="A113" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="C113" s="35"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="32"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="34"/>
+      <c r="A114" s="36" t="s">
+        <v>665</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>639</v>
+      </c>
+      <c r="C114" s="33"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="36"/>
+      <c r="A115" s="36" t="s">
+        <v>666</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>667</v>
+      </c>
+      <c r="C115" s="35"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="36"/>
+      <c r="A116" s="36" t="s">
+        <v>668</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>669</v>
+      </c>
+      <c r="C116" s="35"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="37"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="36"/>
+      <c r="A117" s="36" t="s">
+        <v>670</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>671</v>
+      </c>
+      <c r="C117" s="35"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="37"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="36"/>
+      <c r="A118" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="C118" s="35"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="37"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="36"/>
+      <c r="A119" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="C119" s="35"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="37"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="36"/>
+      <c r="A120" s="34" t="s">
+        <v>677</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>676</v>
+      </c>
+      <c r="C120" s="35"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="36"/>
+      <c r="A121" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="C121" s="35"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="34"/>
+      <c r="A122" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="C122" s="33"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="36"/>
+      <c r="A123" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="C123" s="35"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
-      <c r="B124" s="33"/>
-      <c r="C124" s="36"/>
+      <c r="A124" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>684</v>
+      </c>
+      <c r="C124" s="35"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="36"/>
+      <c r="A125" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="C125" s="35"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="36"/>
+      <c r="A126" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="C126" s="35"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="36"/>
+      <c r="A127" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="C127" s="35"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="32"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="36"/>
+      <c r="A128" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="C128" s="35"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="32"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="36"/>
+      <c r="A129" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="C129" s="35"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="36"/>
+      <c r="A130" s="36" t="s">
+        <v>697</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>696</v>
+      </c>
+      <c r="C130" s="35"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="32"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="34"/>
+      <c r="A131" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>699</v>
+      </c>
+      <c r="C131" s="33"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="32"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="36"/>
+      <c r="A132" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>700</v>
+      </c>
+      <c r="C132" s="35"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="41"/>
+      <c r="A133" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="B133" s="32" t="s">
+        <v>702</v>
+      </c>
+      <c r="C133" s="40"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="34"/>
+      <c r="A134" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="B134" s="32" t="s">
+        <v>704</v>
+      </c>
+      <c r="C134" s="33"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="41"/>
+      <c r="A135" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>706</v>
+      </c>
+      <c r="C135" s="40"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="36"/>
+      <c r="A136" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="B136" s="32" t="s">
+        <v>708</v>
+      </c>
+      <c r="C136" s="35"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="36"/>
+      <c r="A137" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="C137" s="35"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="36"/>
+      <c r="A138" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="B138" s="32" t="s">
+        <v>712</v>
+      </c>
+      <c r="C138" s="35"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="32"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="42"/>
+      <c r="A139" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="B139" s="32" t="s">
+        <v>714</v>
+      </c>
+      <c r="C139" s="41"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="35"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="36"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="34"/>
+      <c r="A140" s="36" t="s">
+        <v>717</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="C140" s="35"/>
+    </row>
+    <row r="141" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>718</v>
+      </c>
+      <c r="C141" s="33" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="32"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="34"/>
+      <c r="A142" s="36" t="s">
+        <v>722</v>
+      </c>
+      <c r="B142" s="37" t="s">
+        <v>721</v>
+      </c>
+      <c r="C142" s="33"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="37"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="36"/>
+      <c r="A143" s="36" t="s">
+        <v>723</v>
+      </c>
+      <c r="B143" s="37" t="s">
+        <v>724</v>
+      </c>
+      <c r="C143" s="35"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="32"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="36"/>
+      <c r="A144" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="B144" s="37" t="s">
+        <v>725</v>
+      </c>
+      <c r="C144" s="35"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
-      <c r="B145" s="38"/>
-      <c r="C145" s="36"/>
+      <c r="A145" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="C145" s="35"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="37"/>
-      <c r="B146" s="38"/>
-      <c r="C146" s="36"/>
+      <c r="A146" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="B146" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="C146" s="35"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="35"/>
-      <c r="B147" s="38"/>
-      <c r="C147" s="36"/>
+      <c r="A147" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="B147" s="37" t="s">
+        <v>732</v>
+      </c>
+      <c r="C147" s="35"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="32"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="36"/>
+      <c r="A148" s="36" t="s">
+        <v>733</v>
+      </c>
+      <c r="B148" s="37" t="s">
+        <v>734</v>
+      </c>
+      <c r="C148" s="35"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="35"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="36"/>
+      <c r="A149" s="34" t="s">
+        <v>736</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="C149" s="35"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="37"/>
-      <c r="B150" s="38"/>
-      <c r="C150" s="36"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="37"/>
-      <c r="B151" s="38"/>
-      <c r="C151" s="36"/>
+      <c r="A150" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="B150" s="37" t="s">
+        <v>738</v>
+      </c>
+      <c r="C150" s="35"/>
+    </row>
+    <row r="151" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A151" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="35"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="36"/>
+      <c r="A152" s="36" t="s">
+        <v>743</v>
+      </c>
+      <c r="B152" s="37" t="s">
+        <v>742</v>
+      </c>
+      <c r="C152" s="35"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="37"/>
-      <c r="B153" s="38"/>
-      <c r="C153" s="36"/>
+      <c r="A153" s="36" t="s">
+        <v>744</v>
+      </c>
+      <c r="B153" s="37" t="s">
+        <v>745</v>
+      </c>
+      <c r="C153" s="35"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="32"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="36"/>
+      <c r="A154" s="36" t="s">
+        <v>747</v>
+      </c>
+      <c r="B154" s="37" t="s">
+        <v>746</v>
+      </c>
+      <c r="C154" s="35"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="37"/>
-      <c r="B155" s="38"/>
-      <c r="C155" s="36"/>
+      <c r="A155" s="31" t="s">
+        <v>749</v>
+      </c>
+      <c r="B155" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="C155" s="35"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="37"/>
-      <c r="B156" s="38"/>
-      <c r="C156" s="36"/>
+      <c r="A156" s="36" t="s">
+        <v>751</v>
+      </c>
+      <c r="B156" s="37" t="s">
+        <v>750</v>
+      </c>
+      <c r="C156" s="35"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="37"/>
-      <c r="B157" s="38"/>
-      <c r="C157" s="36"/>
+      <c r="A157" s="36" t="s">
+        <v>753</v>
+      </c>
+      <c r="B157" s="37" t="s">
+        <v>752</v>
+      </c>
+      <c r="C157" s="35"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="32"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="34"/>
+      <c r="A158" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="B158" s="37" t="s">
+        <v>754</v>
+      </c>
+      <c r="C158" s="33"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
-      <c r="B159" s="38"/>
-      <c r="C159" s="36"/>
+      <c r="A159" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="B159" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="C159" s="35"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="37"/>
-      <c r="B160" s="38"/>
-      <c r="C160" s="36"/>
+      <c r="A160" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="B160" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="C160" s="35"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="37"/>
-      <c r="B161" s="38"/>
-      <c r="C161" s="36"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="35"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="36"/>
+      <c r="A161" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="B161" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="C161" s="35"/>
+    </row>
+    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="31" t="s">
+        <v>762</v>
+      </c>
+      <c r="B162" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="C162" s="39" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="32"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="34"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="37"/>
-      <c r="B164" s="38"/>
-      <c r="C164" s="36"/>
+      <c r="A163" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="B163" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="C163" s="33"/>
+    </row>
+    <row r="164" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="34" t="s">
+        <v>767</v>
+      </c>
+      <c r="B164" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="C164" s="39" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="32"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="34"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="32"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="34"/>
+      <c r="A165" s="31" t="s">
+        <v>770</v>
+      </c>
+      <c r="B165" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="C165" s="33"/>
+    </row>
+    <row r="166" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="B166" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="35"/>
-      <c r="B167" s="33"/>
-      <c r="C167" s="36"/>
+      <c r="A167" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="B167" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="C167" s="35"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="32"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
+      <c r="A168" s="31" t="s">
+        <v>777</v>
+      </c>
+      <c r="B168" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="C168" s="33"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="32"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="34"/>
+      <c r="A169" s="34" t="s">
+        <v>779</v>
+      </c>
+      <c r="B169" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="C169" s="33"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="32"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="34"/>
+      <c r="A170" s="34" t="s">
+        <v>781</v>
+      </c>
+      <c r="B170" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="C170" s="33"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="32"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="34"/>
+      <c r="A171" s="36" t="s">
+        <v>783</v>
+      </c>
+      <c r="B171" s="37" t="s">
+        <v>784</v>
+      </c>
+      <c r="C171" s="33"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="35"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="36"/>
+      <c r="A172" s="36" t="s">
+        <v>785</v>
+      </c>
+      <c r="B172" s="37" t="s">
+        <v>786</v>
+      </c>
+      <c r="C172" s="35"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="35"/>
-      <c r="B173" s="33"/>
-      <c r="C173" s="36"/>
+      <c r="A173" s="36" t="s">
+        <v>788</v>
+      </c>
+      <c r="B173" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="C173" s="35"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="37"/>
-      <c r="B174" s="38"/>
-      <c r="C174" s="36"/>
+      <c r="A174" s="31" t="s">
+        <v>789</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>790</v>
+      </c>
+      <c r="C174" s="35"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="37"/>
-      <c r="B175" s="38"/>
-      <c r="C175" s="36"/>
+      <c r="A175" s="34" t="s">
+        <v>792</v>
+      </c>
+      <c r="B175" s="32" t="s">
+        <v>791</v>
+      </c>
+      <c r="C175" s="35"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="37"/>
-      <c r="B176" s="38"/>
-      <c r="C176" s="36"/>
+      <c r="A176" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="B176" s="32" t="s">
+        <v>794</v>
+      </c>
+      <c r="C176" s="35"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="32"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="36"/>
+      <c r="A177" s="34" t="s">
+        <v>796</v>
+      </c>
+      <c r="B177" s="32" t="s">
+        <v>795</v>
+      </c>
+      <c r="C177" s="35"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="35"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="36"/>
+      <c r="A178" s="36" t="s">
+        <v>798</v>
+      </c>
+      <c r="B178" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="C178" s="35"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="35"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="36"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="35"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="36"/>
+      <c r="A179" s="34" t="s">
+        <v>800</v>
+      </c>
+      <c r="B179" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="C179" s="35"/>
+    </row>
+    <row r="180" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A180" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="B180" s="32" t="s">
+        <v>802</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="37"/>
-      <c r="B181" s="38"/>
-      <c r="C181" s="36"/>
+      <c r="A181" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="B181" s="32" t="s">
+        <v>805</v>
+      </c>
+      <c r="C181" s="35"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="35"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="36"/>
+      <c r="A182" s="34" t="s">
+        <v>806</v>
+      </c>
+      <c r="B182" s="32" t="s">
+        <v>807</v>
+      </c>
+      <c r="C182" s="35"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="32"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="34"/>
+      <c r="A183" s="34" t="s">
+        <v>811</v>
+      </c>
+      <c r="B183" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="C183" s="33"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="32"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="34"/>
+      <c r="A184" s="36" t="s">
+        <v>810</v>
+      </c>
+      <c r="B184" s="37" t="s">
+        <v>809</v>
+      </c>
+      <c r="C184" s="33"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="35"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="36"/>
+      <c r="A185" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="B185" s="32" t="s">
+        <v>812</v>
+      </c>
+      <c r="C185" s="35"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="35"/>
-      <c r="B186" s="33"/>
-      <c r="C186" s="36"/>
+      <c r="A186" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="B186" s="32" t="s">
+        <v>814</v>
+      </c>
+      <c r="C186" s="35"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="37"/>
-      <c r="B187" s="38"/>
-      <c r="C187" s="36"/>
+      <c r="A187" s="36" t="s">
+        <v>817</v>
+      </c>
+      <c r="B187" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="C187" s="35"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="32"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="36"/>
+      <c r="A188" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="B188" s="32" t="s">
+        <v>818</v>
+      </c>
+      <c r="C188" s="35"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="35"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="36"/>
+      <c r="A189" s="34" t="s">
+        <v>821</v>
+      </c>
+      <c r="B189" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="C189" s="35"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="37"/>
-      <c r="B190" s="38"/>
-      <c r="C190" s="36"/>
+      <c r="A190" s="36" t="s">
+        <v>823</v>
+      </c>
+      <c r="B190" s="32" t="s">
+        <v>822</v>
+      </c>
+      <c r="C190" s="35"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="35"/>
-      <c r="B191" s="33"/>
-      <c r="C191" s="36"/>
+      <c r="A191" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="B191" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="C191" s="35"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="35"/>
-      <c r="B192" s="33"/>
-      <c r="C192" s="36"/>
+      <c r="A192" s="34" t="s">
+        <v>827</v>
+      </c>
+      <c r="B192" s="32" t="s">
+        <v>825</v>
+      </c>
+      <c r="C192" s="35"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="37"/>
-      <c r="B193" s="33"/>
-      <c r="C193" s="36"/>
+      <c r="A193" s="36" t="s">
+        <v>829</v>
+      </c>
+      <c r="B193" s="37" t="s">
+        <v>828</v>
+      </c>
+      <c r="C193" s="35"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="35"/>
-      <c r="B194" s="33"/>
-      <c r="C194" s="36"/>
+      <c r="A194" s="34" t="s">
+        <v>831</v>
+      </c>
+      <c r="B194" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="C194" s="35"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="35"/>
-      <c r="B195" s="33"/>
-      <c r="C195" s="36"/>
+      <c r="A195" s="34" t="s">
+        <v>833</v>
+      </c>
+      <c r="B195" s="32" t="s">
+        <v>832</v>
+      </c>
+      <c r="C195" s="35"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="37"/>
-      <c r="B196" s="38"/>
-      <c r="C196" s="36"/>
+      <c r="A196" s="34" t="s">
+        <v>834</v>
+      </c>
+      <c r="B196" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="C196" s="35"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="35"/>
-      <c r="B197" s="33"/>
-      <c r="C197" s="36"/>
+      <c r="A197" s="34" t="s">
+        <v>837</v>
+      </c>
+      <c r="B197" s="32" t="s">
+        <v>836</v>
+      </c>
+      <c r="C197" s="35"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="35"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="36"/>
+      <c r="A198" s="36" t="s">
+        <v>838</v>
+      </c>
+      <c r="B198" s="37" t="s">
+        <v>839</v>
+      </c>
+      <c r="C198" s="35"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="35"/>
-      <c r="B199" s="33"/>
-      <c r="C199" s="36"/>
+      <c r="A199" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="B199" s="32" t="s">
+        <v>841</v>
+      </c>
+      <c r="C199" s="35"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="35"/>
-      <c r="B200" s="33"/>
-      <c r="C200" s="36"/>
+      <c r="A200" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="B200" s="32" t="s">
+        <v>843</v>
+      </c>
+      <c r="C200" s="35"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="37"/>
-      <c r="B201" s="38"/>
-      <c r="C201" s="36"/>
+      <c r="A201" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="B201" s="32" t="s">
+        <v>845</v>
+      </c>
+      <c r="C201" s="35"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="35"/>
-      <c r="B202" s="33"/>
-      <c r="C202" s="36"/>
+      <c r="A202" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="C202" s="35"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="35"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="36"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="35"/>
-      <c r="B204" s="33"/>
-      <c r="C204" s="36"/>
+      <c r="A203" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="B203" s="32" t="s">
+        <v>848</v>
+      </c>
+      <c r="C203" s="35"/>
+    </row>
+    <row r="204" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="42" t="s">
+        <v>851</v>
+      </c>
+      <c r="B204" s="43" t="s">
+        <v>850</v>
+      </c>
+      <c r="C204" s="35"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="35"/>
-      <c r="B205" s="33"/>
-      <c r="C205" s="36"/>
+      <c r="A205" s="54" t="s">
+        <v>852</v>
+      </c>
+      <c r="B205" s="53" t="s">
+        <v>853</v>
+      </c>
+      <c r="C205" s="35"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="35"/>
-      <c r="B206" s="33"/>
-      <c r="C206" s="36"/>
+      <c r="A206" s="54" t="s">
+        <v>854</v>
+      </c>
+      <c r="B206" s="53" t="s">
+        <v>855</v>
+      </c>
+      <c r="C206" s="35"/>
     </row>
     <row r="207" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="43"/>
-      <c r="B207" s="44"/>
-      <c r="C207" s="45"/>
+      <c r="A207" s="54" t="s">
+        <v>857</v>
+      </c>
+      <c r="B207" s="53" t="s">
+        <v>856</v>
+      </c>
+      <c r="C207" s="44"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="54" t="s">
+        <v>859</v>
+      </c>
+      <c r="B208" s="53" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="54" t="s">
+        <v>861</v>
+      </c>
+      <c r="B209" s="53" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="54" t="s">
+        <v>863</v>
+      </c>
+      <c r="B210" s="53" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="54" t="s">
+        <v>865</v>
+      </c>
+      <c r="B211" s="53" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="54" t="s">
+        <v>867</v>
+      </c>
+      <c r="B212" s="53" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="54" t="s">
+        <v>869</v>
+      </c>
+      <c r="B213" s="53" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="54" t="s">
+        <v>871</v>
+      </c>
+      <c r="B214" s="53" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="54" t="s">
+        <v>872</v>
+      </c>
+      <c r="B215" s="53" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="54" t="s">
+        <v>875</v>
+      </c>
+      <c r="B216" s="53" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="54" t="s">
+        <v>877</v>
+      </c>
+      <c r="B217" s="53" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="54" t="s">
+        <v>879</v>
+      </c>
+      <c r="B218" s="53" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="54" t="s">
+        <v>881</v>
+      </c>
+      <c r="B219" s="53" t="s">
+        <v>880</v>
+      </c>
+      <c r="C219" s="52"/>
+    </row>
+    <row r="220" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="54" t="s">
+        <v>886</v>
+      </c>
+      <c r="B220" s="53" t="s">
+        <v>882</v>
+      </c>
+      <c r="C220" s="52" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="54"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="52"/>
+    </row>
+    <row r="222" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A222" s="54" t="s">
+        <v>884</v>
+      </c>
+      <c r="B222" s="53" t="s">
+        <v>883</v>
+      </c>
+      <c r="C222" s="52" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="54" t="s">
+        <v>889</v>
+      </c>
+      <c r="B223" s="53" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="54" t="s">
+        <v>890</v>
+      </c>
+      <c r="B224" s="53" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="54" t="s">
+        <v>892</v>
+      </c>
+      <c r="B225" s="53" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="54" t="s">
+        <v>895</v>
+      </c>
+      <c r="B226" s="53" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="54" t="s">
+        <v>896</v>
+      </c>
+      <c r="B227" s="53" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="54" t="s">
+        <v>898</v>
+      </c>
+      <c r="B228" s="53" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="54" t="s">
+        <v>901</v>
+      </c>
+      <c r="B229" s="53" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="54" t="s">
+        <v>903</v>
+      </c>
+      <c r="B230" s="53" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="54" t="s">
+        <v>905</v>
+      </c>
+      <c r="B231" s="53" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="54" t="s">
+        <v>906</v>
+      </c>
+      <c r="B232" s="53" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="54" t="s">
+        <v>909</v>
+      </c>
+      <c r="B233" s="53" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="54" t="s">
+        <v>909</v>
+      </c>
+      <c r="B234" s="53" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="54" t="s">
+        <v>912</v>
+      </c>
+      <c r="B235" s="53" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="54" t="s">
+        <v>914</v>
+      </c>
+      <c r="B236" s="53" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="54" t="s">
+        <v>915</v>
+      </c>
+      <c r="B237" s="53" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="54" t="s">
+        <v>918</v>
+      </c>
+      <c r="B238" s="53" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="54" t="s">
+        <v>919</v>
+      </c>
+      <c r="B239" s="53" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="54" t="s">
+        <v>922</v>
+      </c>
+      <c r="B240" s="53" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="54" t="s">
+        <v>923</v>
+      </c>
+      <c r="B241" s="53" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="54" t="s">
+        <v>928</v>
+      </c>
+      <c r="B242" s="53" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="54" t="s">
+        <v>926</v>
+      </c>
+      <c r="B243" s="53" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="54" t="s">
+        <v>929</v>
+      </c>
+      <c r="B244" s="53" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="B245" s="53" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="54" t="s">
+        <v>933</v>
+      </c>
+      <c r="B246" s="53" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="54" t="s">
+        <v>936</v>
+      </c>
+      <c r="B247" s="53" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="54" t="s">
+        <v>938</v>
+      </c>
+      <c r="B248" s="53" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="54" t="s">
+        <v>940</v>
+      </c>
+      <c r="B249" s="53" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="54" t="s">
+        <v>942</v>
+      </c>
+      <c r="B250" s="53" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="54" t="s">
+        <v>944</v>
+      </c>
+      <c r="B251" s="53" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="B252" s="53" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="54" t="s">
+        <v>948</v>
+      </c>
+      <c r="B253" s="53" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="54" t="s">
+        <v>949</v>
+      </c>
+      <c r="B254" s="53" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="54" t="s">
+        <v>952</v>
+      </c>
+      <c r="B255" s="53" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="54" t="s">
+        <v>954</v>
+      </c>
+      <c r="B256" s="53" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="54" t="s">
+        <v>955</v>
+      </c>
+      <c r="B257" s="53" t="s">
+        <v>957</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C29" xr:uid="{9BDB45AE-1C57-48BD-9E39-B87CB05DD850}">
@@ -6532,6 +9128,9 @@
       <sortCondition ref="A1:A29"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C43:C50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
